--- a/Reports/Conclusion/General Data.xlsx
+++ b/Reports/Conclusion/General Data.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Conclusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A1B4D-E559-44FA-A6DD-EED4493933B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D84C6-53AA-4C69-9CDF-B6DB76CC7258}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="11" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="14" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -335,14 +338,14 @@
     <t>Count of Jobs to be increased</t>
   </si>
   <si>
-    <t>Count of Top Skillset</t>
+    <t>Count of Number of Employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +359,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,10 +388,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -390,9 +401,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -527,8 +540,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -623,9 +635,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -633,7 +643,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -682,9 +692,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -692,7 +700,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -741,9 +749,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -751,7 +757,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -800,9 +806,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1352,8 +1356,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1397,6 +1400,170 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1458,6 +1625,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8B30-480D-BFD3-B0FB1122B55E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1500,6 +1672,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8B30-480D-BFD3-B0FB1122B55E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1542,6 +1719,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8B30-480D-BFD3-B0FB1122B55E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1584,6 +1766,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8B30-480D-BFD3-B0FB1122B55E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2246,475 +2433,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[General Data.xlsx]Sheet6!PivotTable5</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet6!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet6!$A$4:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v> Problem Solving</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> Teamwork and Collaboration</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Communication Skills</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> Time Management</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> Languages</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> Leadership / Management Skills</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> Computer / IT Literacy</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> Technical Knowledge</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> Self-Management and Initiative</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> Critical and Creative Thinking</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> Flexibility / Adaptability</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> Self-confidence</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> Sales and Marketing Skills</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> Global Fluency &amp; Perspective</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> Persuasion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet6!$B$4:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D09-4985-AF3E-514C20057391}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1219337648"/>
-        <c:axId val="1212157712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1219337648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1212157712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1212157712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1219337648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2796,46 +2514,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4400,509 +4078,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5026,60 +4201,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF89A472-B4C7-4912-AC9B-40A7CE17CE93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43669.447320254629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="563" xr:uid="{2B9F8041-4E03-4A92-8A24-F3070AFD767D}">
   <cacheSource type="worksheet">
@@ -5090,7 +4211,15 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Number of Employee" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="7">
+        <s v="51-100"/>
+        <s v="10-50"/>
+        <s v="Over 500"/>
+        <s v="1-9"/>
+        <s v="201-500"/>
+        <s v="101-200"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -5214,27 +4343,27 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="563">
   <r>
     <m/>
-    <s v="51-100"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <s v="51-100"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <s v="51-100"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5244,7 +4373,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5254,7 +4383,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -5264,7 +4393,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5274,7 +4403,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5284,7 +4413,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5294,7 +4423,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -5304,7 +4433,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5314,7 +4443,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5324,7 +4453,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5334,7 +4463,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5344,7 +4473,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5354,7 +4483,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5364,7 +4493,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5374,17 +4503,17 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <s v="1-9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5394,7 +4523,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5404,7 +4533,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -5414,7 +4543,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5424,7 +4553,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -5434,7 +4563,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5444,7 +4573,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5454,7 +4583,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5464,7 +4593,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5474,7 +4603,7 @@
   </r>
   <r>
     <m/>
-    <s v="201-500"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5484,7 +4613,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5494,7 +4623,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5504,17 +4633,17 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <s v="1-9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5524,7 +4653,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -5534,7 +4663,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5544,7 +4673,7 @@
   </r>
   <r>
     <m/>
-    <s v="101-200"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5554,7 +4683,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5564,7 +4693,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -5574,7 +4703,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5584,7 +4713,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5594,7 +4723,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5604,7 +4733,7 @@
   </r>
   <r>
     <m/>
-    <s v="101-200"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5614,7 +4743,7 @@
   </r>
   <r>
     <m/>
-    <s v="51-100"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5624,7 +4753,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5634,7 +4763,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5644,7 +4773,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5654,7 +4783,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5664,7 +4793,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5674,7 +4803,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5684,7 +4813,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="3"/>
     <x v="1"/>
@@ -5694,7 +4823,7 @@
   </r>
   <r>
     <m/>
-    <s v="201-500"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5704,7 +4833,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5714,7 +4843,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5724,7 +4853,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5734,17 +4863,17 @@
   </r>
   <r>
     <m/>
-    <s v="101-200"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <s v="10-50"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -5754,7 +4883,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5764,7 +4893,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
@@ -5774,7 +4903,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5784,7 +4913,7 @@
   </r>
   <r>
     <m/>
-    <s v="1-9"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5794,7 +4923,7 @@
   </r>
   <r>
     <m/>
-    <s v="Over 500"/>
+    <x v="2"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5804,7 +4933,7 @@
   </r>
   <r>
     <m/>
-    <s v="10-50"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5814,7 +4943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5824,7 +4953,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5834,7 +4963,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5844,7 +4973,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5854,7 +4983,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5864,7 +4993,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5874,7 +5003,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5884,7 +5013,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5894,7 +5023,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5904,7 +5033,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5914,7 +5043,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5924,7 +5053,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5934,7 +5063,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5944,7 +5073,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5954,7 +5083,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5964,7 +5093,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5974,7 +5103,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5984,7 +5113,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -5994,7 +5123,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6004,7 +5133,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6014,7 +5143,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6024,7 +5153,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6034,7 +5163,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6044,7 +5173,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6054,7 +5183,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6064,7 +5193,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6074,7 +5203,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6084,7 +5213,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6094,7 +5223,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6104,7 +5233,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6114,7 +5243,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6124,7 +5253,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6134,7 +5263,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6144,7 +5273,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6154,7 +5283,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6164,7 +5293,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6174,7 +5303,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6184,17 +5313,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6204,7 +5333,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6214,17 +5343,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6234,7 +5363,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6244,7 +5373,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6254,7 +5383,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6264,17 +5393,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6284,17 +5413,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6304,7 +5433,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6314,7 +5443,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6324,17 +5453,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6344,7 +5473,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6354,7 +5483,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6364,7 +5493,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6374,7 +5503,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6384,17 +5513,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6404,27 +5533,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6434,17 +5563,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6454,7 +5583,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6464,7 +5593,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6474,7 +5603,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6484,7 +5613,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6494,7 +5623,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6504,7 +5633,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6514,27 +5643,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6544,7 +5673,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6554,7 +5683,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6564,7 +5693,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6574,7 +5703,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6584,27 +5713,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6614,17 +5743,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6634,7 +5763,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6644,7 +5773,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6654,7 +5783,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6664,7 +5793,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6674,7 +5803,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6684,7 +5813,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6694,7 +5823,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6704,7 +5833,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6714,7 +5843,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6724,7 +5853,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6734,7 +5863,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6744,7 +5873,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6754,7 +5883,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6764,17 +5893,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6784,17 +5913,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6804,7 +5933,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6814,7 +5943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6824,7 +5953,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6834,7 +5963,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6844,7 +5973,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6854,7 +5983,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6864,7 +5993,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6874,7 +6003,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6884,27 +6013,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6914,17 +6043,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6934,7 +6063,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6944,7 +6073,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6954,7 +6083,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6964,7 +6093,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6974,7 +6103,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6984,7 +6113,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -6994,7 +6123,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7004,7 +6133,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7014,7 +6143,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7024,7 +6153,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7034,17 +6163,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7054,7 +6183,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7064,7 +6193,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7074,7 +6203,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7084,7 +6213,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7094,27 +6223,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7124,17 +6253,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7144,7 +6273,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7154,17 +6283,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7174,7 +6303,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7184,7 +6313,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7194,7 +6323,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7204,7 +6333,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7214,7 +6343,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7224,7 +6353,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7234,7 +6363,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7244,7 +6373,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7254,7 +6383,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7264,7 +6393,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7274,17 +6403,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7294,27 +6423,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7324,7 +6453,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7334,7 +6463,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7344,17 +6473,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7364,17 +6493,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7384,7 +6513,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7394,7 +6523,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7404,7 +6533,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7414,7 +6543,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7424,7 +6553,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7434,27 +6563,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7464,17 +6593,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7484,7 +6613,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7494,17 +6623,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7514,7 +6643,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7524,7 +6653,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7534,7 +6663,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7544,7 +6673,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7554,7 +6683,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7564,7 +6693,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7574,27 +6703,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7604,17 +6733,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7624,7 +6753,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7634,17 +6763,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7654,7 +6783,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7664,7 +6793,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7674,7 +6803,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7684,7 +6813,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7694,7 +6823,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7704,7 +6833,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7714,7 +6843,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7724,27 +6853,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7754,17 +6883,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7774,17 +6903,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7794,7 +6923,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7804,7 +6933,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7814,7 +6943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7824,27 +6953,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7854,7 +6983,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7864,7 +6993,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7874,17 +7003,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7894,17 +7023,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7914,7 +7043,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7924,7 +7053,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7934,7 +7063,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7944,7 +7073,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7954,7 +7083,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7964,7 +7093,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7974,7 +7103,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7984,7 +7113,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -7994,27 +7123,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8024,17 +7153,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8044,7 +7173,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8054,17 +7183,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8074,7 +7203,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8084,7 +7213,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8094,7 +7223,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8104,7 +7233,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8114,7 +7243,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8124,7 +7253,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8134,7 +7263,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8144,7 +7273,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8154,27 +7283,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8184,17 +7313,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8204,7 +7333,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8214,17 +7343,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8234,7 +7363,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8244,7 +7373,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8254,7 +7383,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8264,7 +7393,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8274,7 +7403,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8284,7 +7413,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8294,7 +7423,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8304,7 +7433,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8314,27 +7443,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8344,17 +7473,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8364,7 +7493,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8374,17 +7503,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8394,7 +7523,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8404,7 +7533,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8414,7 +7543,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8424,7 +7553,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8434,7 +7563,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8444,7 +7573,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8454,7 +7583,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8464,27 +7593,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8494,7 +7623,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8504,17 +7633,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8524,7 +7653,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8534,7 +7663,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8544,7 +7673,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8554,7 +7683,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8564,7 +7693,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8574,27 +7703,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8604,17 +7733,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8624,7 +7753,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8634,7 +7763,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8644,7 +7773,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8654,7 +7783,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8664,7 +7793,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8674,7 +7803,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8684,27 +7813,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8714,17 +7843,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8734,7 +7863,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8744,7 +7873,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8754,7 +7883,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8764,7 +7893,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8774,7 +7903,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8784,7 +7913,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8794,7 +7923,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8804,7 +7933,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8814,7 +7943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8824,27 +7953,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8854,17 +7983,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8874,7 +8003,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8884,17 +8013,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8904,7 +8033,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8914,7 +8043,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8924,7 +8053,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8934,7 +8063,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8944,7 +8073,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8954,7 +8083,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8964,27 +8093,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -8994,17 +8123,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9014,7 +8143,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9024,7 +8153,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9034,7 +8163,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9044,7 +8173,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9054,27 +8183,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9084,17 +8213,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9104,7 +8233,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9114,17 +8243,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9134,7 +8263,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9144,7 +8273,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9154,7 +8283,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9164,7 +8293,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9174,7 +8303,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9184,7 +8313,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9194,17 +8323,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9214,17 +8343,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9234,7 +8363,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9244,7 +8373,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9254,7 +8383,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9264,7 +8393,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9274,7 +8403,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9284,7 +8413,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9294,27 +8423,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9324,17 +8453,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9344,7 +8473,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9354,17 +8483,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9374,7 +8503,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9384,7 +8513,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9394,7 +8523,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9404,7 +8533,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9414,7 +8543,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9424,7 +8553,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9434,7 +8563,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9444,37 +8573,37 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9484,27 +8613,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9514,17 +8643,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9534,7 +8663,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9544,17 +8673,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9564,7 +8693,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9574,7 +8703,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9584,7 +8713,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9594,7 +8723,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9604,7 +8733,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9614,7 +8743,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9624,27 +8753,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9654,17 +8783,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9674,7 +8803,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9684,7 +8813,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9694,7 +8823,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9704,7 +8833,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9714,7 +8843,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9724,7 +8853,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9734,7 +8863,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9744,27 +8873,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9774,17 +8903,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9794,7 +8923,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9804,7 +8933,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9814,7 +8943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9824,7 +8953,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9834,27 +8963,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9864,27 +8993,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9894,7 +9023,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9904,7 +9033,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9914,7 +9043,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9924,7 +9053,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9934,27 +9063,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9964,17 +9093,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9984,7 +9113,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -9994,17 +9123,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10014,7 +9143,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10024,7 +9153,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10034,7 +9163,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10044,7 +9173,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10054,7 +9183,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10064,7 +9193,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10074,7 +9203,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10084,27 +9213,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10114,17 +9243,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10134,7 +9263,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10144,17 +9273,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10164,7 +9293,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10174,7 +9303,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10184,7 +9313,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10194,7 +9323,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10204,7 +9333,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10214,7 +9343,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10224,7 +9353,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10234,7 +9363,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10244,27 +9373,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10274,17 +9403,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10294,7 +9423,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10304,17 +9433,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10324,7 +9453,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10334,7 +9463,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10344,7 +9473,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10354,7 +9483,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10364,7 +9493,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10374,7 +9503,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10384,7 +9513,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10394,7 +9523,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10404,17 +9533,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10424,7 +9553,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10434,7 +9563,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10444,17 +9573,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10464,7 +9593,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10474,7 +9603,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10484,7 +9613,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10494,17 +9623,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10514,7 +9643,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10524,7 +9653,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10534,7 +9663,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10544,7 +9673,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10554,27 +9683,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10584,17 +9713,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10604,17 +9733,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10624,7 +9753,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10634,7 +9763,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10644,7 +9773,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10654,7 +9783,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10664,7 +9793,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10674,17 +9803,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10694,7 +9823,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10704,7 +9833,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10714,27 +9843,27 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10744,17 +9873,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10764,17 +9893,17 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10784,7 +9913,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10794,7 +9923,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10804,7 +9933,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10814,7 +9943,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10824,7 +9953,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10834,7 +9963,7 @@
   </r>
   <r>
     <m/>
-    <m/>
+    <x v="6"/>
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
@@ -10846,7 +9975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD0DAE41-5F89-45CE-B8CB-E007519A07FF}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD0DAE41-5F89-45CE-B8CB-E007519A07FF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -10962,7 +10091,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EC0401-CCCC-4CD5-A5E6-C4C7ADACF73F}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EC0401-CCCC-4CD5-A5E6-C4C7ADACF73F}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -11081,7 +10210,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B94654B-5512-4AFB-8DB4-77E2BA9B3BAD}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B94654B-5512-4AFB-8DB4-77E2BA9B3BAD}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -11127,12 +10256,60 @@
   <dataFields count="1">
     <dataField name="Count of Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="5">
     <chartFormat chart="12" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11151,7 +10328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCFDE8A1-183F-4114-A937-830F52AC6F5B}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCFDE8A1-183F-4114-A937-830F52AC6F5B}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -11311,17 +10488,78 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AC484B4-200D-452B-9947-DA9BD00C14BE}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AC484B4-200D-452B-9947-DA9BD00C14BE}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="47">
+        <item x="24"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="43"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="44"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="31"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" measureFilter="1" sortType="descending">
+    <pivotField showAll="0">
       <items count="27">
         <item x="13"/>
         <item x="5"/>
@@ -11351,65 +10589,29 @@
         <item x="25"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
+  <rowItems count="7">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="12"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -11419,29 +10621,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Top Skillset" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Number of Employee" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="7" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="15" filterVal="15"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -11454,6 +10636,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59297E9E-A19C-4B8C-AC3D-AFEB885719A1}" name="Table2" displayName="Table2" ref="A1:H45" totalsRowShown="0">
+  <autoFilter ref="A1:H45" xr:uid="{CCEA9C4B-CAAD-4257-A270-471F6C585DA2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9E55FF6B-0180-4964-B11F-A74128C86C99}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{341A094C-E925-482E-B744-73CE224E35FE}" name="Number of Employee"/>
+    <tableColumn id="3" xr3:uid="{411A49E7-8D66-47F3-A6F5-0E696FAD7FF2}" name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?"/>
+    <tableColumn id="4" xr3:uid="{934070C4-BF16-4F38-9055-75C65BEA8925}" name="Reason of Increasing"/>
+    <tableColumn id="5" xr3:uid="{81007CC7-C4D7-4B2C-A383-F10516FC77E0}" name="Reason of Decreasing"/>
+    <tableColumn id="6" xr3:uid="{23BEE129-D042-4406-BA6B-AA9AEEA1E618}" name="Jobs to be increased"/>
+    <tableColumn id="7" xr3:uid="{CE50A900-7650-4121-AF80-0886465D927F}" name="Jobs to be decreased"/>
+    <tableColumn id="8" xr3:uid="{F1D245FA-1D30-4ADA-8BBF-8661F4563BB1}" name="Top Skillset"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A1950D-C913-4822-A10D-ECB8CDAB91AB}" name="Table1" displayName="Table1" ref="A1:H564" totalsRowShown="0">
   <autoFilter ref="A1:H564" xr:uid="{558F3AD4-A73D-4F7D-9921-393D5A8ECDB2}"/>
   <tableColumns count="8">
@@ -12061,166 +11260,440 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7FB233-7C30-4D36-A9DD-0385296C6A56}">
-  <dimension ref="A3:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A477A9B-DB8B-45D1-A689-141A6EC6970F}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4">
-        <v>529</v>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7FB233-7C30-4D36-A9DD-0385296C6A56}">
+  <dimension ref="A3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z564"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
